--- a/data/trans_bre/P1435_2011_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.215946854318457</v>
+        <v>2.259953359907442</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.198859468452927</v>
+        <v>4.049406883100317</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2.283154497763593</v>
+        <v>2.527662924923342</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.755806003896077</v>
+        <v>0.7582400979540126</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.59153569096</v>
+        <v>4.593427599166851</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.250119193623878</v>
+        <v>9.164333626781339</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33.20700004773267</v>
+        <v>37.10867634482551</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11.70296084268929</v>
+        <v>10.75869188656423</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.666032070253157</v>
+        <v>1.637429636691466</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.431001748306809</v>
+        <v>5.563259158834492</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.587898227540814</v>
+        <v>1.550836716508046</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.554801489442055</v>
+        <v>2.749319354375708</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.203332987820774</v>
+        <v>3.975968329859648</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.618226955368408</v>
+        <v>8.638830348835461</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>28.05686329282937</v>
+        <v>27.20702735166145</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>10.4402541360582</v>
+        <v>10.75684530151987</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.526292406537878</v>
+        <v>2.578752830345152</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.664420276517017</v>
+        <v>5.718441893198787</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3.470493311447634</v>
+        <v>3.531711054033473</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.893797957615514</v>
+        <v>2.073133334934449</v>
       </c>
     </row>
     <row r="12">
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.294187105128643</v>
+        <v>5.405754123195479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.28673756707866</v>
+        <v>9.275309226302063</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>6.35881912045223</v>
+        <v>6.654031813933835</v>
       </c>
     </row>
     <row r="13">
@@ -799,14 +799,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.510556373930491</v>
+        <v>1.673570491880506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.835525725854358</v>
+        <v>5.79176407461958</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2.351500824113302</v>
+        <v>2.232573769672644</v>
       </c>
     </row>
     <row r="15">
@@ -817,14 +817,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.331449396303629</v>
+        <v>5.690879630531219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.729435012588047</v>
+        <v>9.430693635175412</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>9.335186008975922</v>
+        <v>8.740822596454436</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +842,7 @@
         <v>3.254751761545455</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.177824596634701</v>
+        <v>7.177824596634699</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>10.07408430576323</v>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.631815596185364</v>
+        <v>2.6492362051125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.260321830997271</v>
+        <v>6.333081244114207</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>5.371053379438946</v>
+        <v>5.225521913859842</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2.983615178558451</v>
+        <v>2.903233393079283</v>
       </c>
     </row>
     <row r="18">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.971793110387933</v>
+        <v>4.003884118958786</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.109088085494202</v>
+        <v>8.189113073700021</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19.28199981836245</v>
+        <v>21.9948124665058</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6.050747336069124</v>
+        <v>5.790469421350759</v>
       </c>
     </row>
     <row r="19">
